--- a/data/jk_cwshd_test.xlsx
+++ b/data/jk_cwshd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFC943E-042F-814F-A96D-1F37AB07A35A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BB71F0-2052-5944-8EBD-5FAF7DA3AF9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -32,12 +32,12 @@
     <sheet name="deduction_share_sign" sheetId="17" r:id="rId17"/>
     <sheet name="upload" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>casename</t>
   </si>
@@ -709,6 +709,20 @@
 		"floorSpace": 21.55,
 		"staffOnActiveDutyNum": 1
 	}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "jkjr",
+  "sourceCode": "jkjr",
+  "serviceSn": "1547904999999",
+  "sourceUserId": "45",
+  "contractType": 14,
+  "sourceContractId": "123423007",
+  "associationId": "7980652574031872",
+  "transactionId": "Test_45",
+  "content": ""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -929,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,6 +1038,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3449,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4656,14 +4673,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="36" style="19" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="19" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="19"/>
   </cols>
@@ -4685,7 +4704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" customHeight="1">
+    <row r="2" spans="1:5" ht="193" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -4695,7 +4714,9 @@
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>

--- a/data/jk_cwshd_test.xlsx
+++ b/data/jk_cwshd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BB71F0-2052-5944-8EBD-5FAF7DA3AF9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CCF78A-73F4-D44B-9D1F-6B574E9B7A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -443,129 +443,6 @@
   </si>
   <si>
     <t>/api/v1/jkjr/cwd/credit/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"sourceCode": "jkjr",
-	"channel": "jkjr",
-	"sourceUserId": "1234567890000",
-	"transactionId": "1234567890000",
-	"serviceSn": "1234567890000",
-	"creditInfo": {
-		"sourceCreditAmt": 50000.00,
-		"sourceCreditRate": 0.12000,
-		"auditResult": 1
-	},
-	"applyInfo": {
-		"applyTime": "2020-05-06 12:30:30",
-		"productGroup": 1122,
-		"applySource": "api",
-		"financeChannel": 1
-	},
-	"personalInfo": {
-		"custName": "张三",
-		"cardNum": "110100199010010001",
-		"phone": "13800138001",
-		"sex": "M",
-		"age": 25,
-		"maritalStatus": 1,
-		"hasChildren": "Y",
-		"fourVerifyResult": "Y",
-		"liveAddressProvince": "110100",
-		"liveAddressCity": "110100",
-		"liveAddressBorough": "110500",
-		"liveDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
-		"monthIncome": 5,
-		"personalEmail": "zhangsan@test.com",
-		"cardValidDate": "2029-12-10-9999-09-09",
-		"isLocalRigster": "Y",
-		"personalPurchaseHouse": 1,
-		"livingYear": 1,
-		"applicantClinicRelationship": 1,
-		"isDoctor": 1,
-		"workingYear": 5,
-		"isHighRiskArea": "Y"
-	},
-	"contactInfo": {
-		"spouseName": "李四",
-		"spouseCardNum": "110100199010010002",
-		"firstContactRelationship": 2,
-		"firstContactName": "李四",
-		"firstContactCardNum": "110100199010010002",
-		"firstContactPhone": "13800138002"
-	},
-	"entityInfo": {
-		"manageTime": 0,
-		"monitorDevice": "检查设备",
-		"hasCertificateNumberOfPeople": 1,
-		"consultationRoomNumber": 1,
-		"doctorNumber": 1,
-		"monthPatients": 1,
-		"manageAddressProvince": "110100",
-		"manageAddressCity": "110100",
-		"manageAddressBorough": "110500",
-		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
-		"isChainInstitution": "Y",
-		"chainInstitutionNumber": 2,
-		"isChangeForLegalPerson": 1,
-		"clinicName": "医院名称",
-		"supplierUnifiedSocialCreditCode": "48519923",
-		"unifiedSocialCreditCode": "5689491",
-		"permitRegistrationNumber": "54001012345",
-		"hospitalCategory": 1,
-		"isThreeCertificatesInOne": "Y",
-		"corpType": 1,
-		"registeredAssets": 100.05,
-		"isAddressConsistent": "Y",
-		"registerAddressProvince": "110100",
-		"registerAddressCity": "110100",
-		"registerAddressBorough": "110500",
-		"registerDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
-		"cityGrading": 1,
-		"businessLicenseValidDate": "2029-12-10-9999-09-09",
-		"openingDate": "2021-02-01",
-		"establishYears": 3,
-		"oldLegalPersonName": "原法人",
-		"brandName": "品牌名称",
-		"annualRunningWater": 10.11,
-		"operateSiteOwnership": 1,
-		"legalPersonName": "法人",
-		"legalPersonIdcard": "110100199010010002",
-		"legalPersonPhone": "13800138002",
-		"decorateGrade": 1,
-		"locationGrade": 1,
-		"legalPersonPhoneRealName": "Y",
-		"isSamePersonForProprietorAndLegal": "Y",
-		"proprietorRealName": "实际经营者",
-		"proprietorRealIdCardNo": "372301199509074811",
-		"proprietorRealPhone": "15533330101",
-		"proprietorIsPhoneRealName": "Y",
-		"legalPersonIsDoctor": 1,
-		"proprietorIsDoctor": 1,
-		"shareholderIsDoctor": 1,
-		"accessWay": 1,
-		"supplierName": "供应商1,供应商2",
-		"floorSpace": 21.55,
-		"staffOnActiveDutyNum": 1
-	},
-	"imageInfo": {
-		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
-		"backPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190711/c8fb8a8d370b4c1eb03e1c5cc0cc95a8.jpeg",
-		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
-		"graduationCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20170823/6c785864112d4345b55e4cea2b13c74b.jpg",
-		"propertyCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180203/f052f7850d954d7894961aec83d964d1.jpeg",
-		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg",
-		"shareholderCertificate": "https://gss0.baidu.com/9vo3dSag_xI4khGko9WTAnF6hhy/zhidao/wh%3D600%2C800/sign=f0b363f254ee3d6d22938fcd7326411a/5bafa40f4bfbfbed0aea462a75f0f736afc31f37.jpg",
-		"medicalInstitutionLicense": "https://cn.bing.com/images/search?view=detailV2&amp;ccid=lOvyrMAU&amp;id=53EBC385D85E86D272FF006CB52CCA789897B51F&amp;thid=OIP.lOvyrMAU9tvaCy00NgxQtQHaE6&amp;mediaurl=https%3a%2f%2fpic4.zhimg.com%2fv2-bc7577240243deaa0d1e7b381363a3b3_b.jpg",
-		"businessLicense": "http://baoliao.oeeee.com/upload/2/2014-0/650XH/62df72e8-a41a-4386-973b-f8b93e98d8f0.jpg",
-		"enterpriseEnvironment": "https://th.bing.com/th/id/Re5d8c49cbd3a02de7b984e2c8463d5ed?rik=rMJIVSGbGKPmJg&amp;riu=http%3a%2f%2fwww.zdmd.com.cn%2fupload%2f2016-4%2f2016041951847793.JPG",
-		"enterpriseFacadePhotos": "https://image2.znzmo.com/JkrEi44k7M.jpg",
-		"consultationRoomPhotos": "https://img.zcool.cn/community/01b9a25c39ab32a80121fbb06c85c4.jpg@1280w_1l_2o_100sh.jpg",
-		"oldLegalPersonNamePrintscreen": "https://th.bing.com/th/id/R0d60a1f8f2774f0f66ac24af3d91ae57?rik=%2fmjxUwwz8ni8rQ&amp;riu=http%3a%2f%2fwww.95ye.com%2fuploads%2fpictures%2f2018-10%2f1_1540692493.png",
-		"propertyInLandCertificate": "https://th.bing.com/th/id/R4e04ad28b45d4ce90213e12d5938ad4e?rik=Pyb7bEUIxVPhcQ&amp;riu=http%3a%2f%2fpmo31310f.pic36.websiteonline.cn%2fupload%2f2qpc.jpg"
-	}
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -723,6 +600,128 @@
   "associationId": "7980652574031872",
   "transactionId": "Test_45",
   "content": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"sourceCode": "jkjr",
+	"channel": "jkjr",
+	"sourceUserId": "1234567890000",
+	"transactionId": "1234567890000",
+	"serviceSn": "1234567890000",
+	"creditInfo": {
+		"sourceCreditAmt": 50000.00,
+		"sourceCreditRate": 0.12000,
+		"auditResult": 1
+	},
+	"applyInfo": {
+		"applyTime": "2020-05-06 12:30:30",
+		"productGroup": 1122,
+		"applySource": "api",
+		"financeChannel": 1
+	},
+	"personalInfo": {
+		"custName": "张三",
+		"cardNum": "110100199010010001",
+		"phone": "13800138001",
+		"sex": "M",
+		"age": 25,
+		"maritalStatus": 1,
+		"hasChildren": "Y",
+		"fourVerifyResult": "Y",
+		"liveAddressProvince": "110100",
+		"liveAddressCity": "110100",
+		"liveAddressBorough": "110500",
+		"liveDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"monthIncome": 5,
+		"personalEmail": "zhangsan@test.com",
+		"cardValidDate": "2029-12-10-9999-09-09",
+		"isLocalRigster": "Y",
+		"personalPurchaseHouse": 1,
+		"livingYear": 1,
+		"applicantClinicRelationship": 1,
+		"isDoctor": 1,
+		"workingYear": 5,
+		"isHighRiskArea": "Y"
+	},
+	"contactInfo": {
+		"spouseName": "李四",
+		"spouseCardNum": "110100199010010002",
+		"firstContactRelationship": 2,
+		"firstContactName": "李四",
+		"firstContactCardNum": "110100199010010002",
+		"firstContactPhone": "13800138002"
+	},
+	"entityInfo": {
+		"manageAddressProvince": "110100",
+		"manageAddressCity": "110100",
+		"manageAddressBorough": "110500",
+		"manageDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"chainInstitutionNumber": 2,
+		"clinicName": "宠物医院名称",
+		"unifiedSocialCreditCode": "81399104",
+		"floorSpace": 21.11,
+		"permitRegistrationNumber": "192030304",
+		"hospitalCategory": 1,
+		"isThreeCertificatesInOne": "Y",
+		"corpType": 1,
+		"registeredAssets": 111.11,
+		"businessLicenseValidDate": "9999-09-09",
+		"openingDate": "2021-01-01",
+		"establishYears": 3,
+		"manageTime": 5,
+		"isChainInstitution": "Y",
+		"brandName": "品牌名称",
+		"annualRunningWater": 55.55,
+		"isAddressConsistent": "Y",
+		"registerAddressProvince": "110100",
+		"registerAddressCity": "110100",
+		"registerAddressBorough": "110500",
+		"registerDetailAddress": "北京市海淀区xxx街道xxx小区xxx号楼xxx层xxx室",
+		"operateSiteOwnership": 1,
+		"decorateGrade": 1,
+		"locationGrade": 1,
+		"cityGrading": 1,
+		"legalPersonName": "法人",
+		"legalPersonIdcard": "110100199010010002",
+		"legalPersonPhone": "13800138002",
+		"isChangeForLegalPerson": 1,
+		"oldLegalPersonName": "原法人姓名",
+		"isSamePersonForProprietorAndLegal": "Y",
+		"proprietorRealName": "实际经营者",
+		"proprietorRealIdCardNo": "372301199509074811",
+		"proprietorRealPhone": "15533330101",
+		"proprietorIsPhoneRealName": "Y",
+		"legalPersonIsDoctor": 1,
+		"proprietorIsDoctor": 1,
+		"shareholderIsDoctor": 1,
+		"accessWay": 1,
+		"supplierName": "供应商",
+		"supplierUnifiedSocialCreditCode": "32849935",
+		"staffOnActiveDutyNum": 1,
+		"monitorDevice": "ct",
+		"monthPatients": 1,
+		"hasCertificateNumberOfPeople": 5,
+		"doctorNumber": 3,
+		"consultationRoomNumber": 7
+	},
+	"imageInfo": {
+		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
+		"backPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190711/c8fb8a8d370b4c1eb03e1c5cc0cc95a8.jpeg",
+		"livingVerificationScreenshot": "http://www.99danji.com/uploadfile/2015/0921/20150921103659839.png",
+		"graduationCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20170823/6c785864112d4345b55e4cea2b13c74b.jpg",
+		"propertyCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180203/f052f7850d954d7894961aec83d964d1.jpeg",
+		"medicalPracticeCertificate": "http://5b0988e595225.cdn.sohucs.com/images/20180901/85cf11b2b21c4bbd836eab3d966477cc.jpeg",
+		"shareholderCertificate": "https://gss0.baidu.com/9vo3dSag_xI4khGko9WTAnF6hhy/zhidao/wh%3D600%2C800/sign=f0b363f254ee3d6d22938fcd7326411a/5bafa40f4bfbfbed0aea462a75f0f736afc31f37.jpg",
+		"medicalInstitutionLicense": "https://cn.bing.com/images/search?view=detailV2&amp;ccid=lOvyrMAU&amp;id=53EBC385D85E86D272FF006CB52CCA789897B51F&amp;thid=OIP.lOvyrMAU9tvaCy00NgxQtQHaE6&amp;mediaurl=https%3a%2f%2fpic4.zhimg.com%2fv2-bc7577240243deaa0d1e7b381363a3b3_b.jpg",
+		"businessLicense": "http://baoliao.oeeee.com/upload/2/2014-0/650XH/62df72e8-a41a-4386-973b-f8b93e98d8f0.jpg",
+		"enterpriseEnvironment": "https://th.bing.com/th/id/Re5d8c49cbd3a02de7b984e2c8463d5ed?rik=rMJIVSGbGKPmJg&amp;riu=http%3a%2f%2fwww.zdmd.com.cn%2fupload%2f2016-4%2f2016041951847793.JPG",
+		"enterpriseFacadePhotos": "https://image2.znzmo.com/JkrEi44k7M.jpg",
+		"consultationRoomPhotos": "https://img.zcool.cn/community/01b9a25c39ab32a80121fbb06c85c4.jpg@1280w_1l_2o_100sh.jpg",
+		"oldLegalPersonNamePrintscreen": "https://th.bing.com/th/id/R0d60a1f8f2774f0f66ac24af3d91ae57?rik=%2fmjxUwwz8ni8rQ&amp;riu=http%3a%2f%2fwww.95ye.com%2fuploads%2fpictures%2f2018-10%2f1_1540692493.png",
+		"propertyInLandCertificate": "https://th.bing.com/th/id/R4e04ad28b45d4ce90213e12d5938ad4e?rik=Pyb7bEUIxVPhcQ&amp;riu=http%3a%2f%2fpmo31310f.pic36.websiteonline.cn%2fupload%2f2qpc.jpg"
+	}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2206,7 +2205,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2256,7 +2255,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="45">
         <v>2000</v>
@@ -3467,7 +3466,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -3506,14 +3505,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4673,7 +4672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4715,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>

--- a/data/jk_cwshd_test.xlsx
+++ b/data/jk_cwshd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CCF78A-73F4-D44B-9D1F-6B574E9B7A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380804E4-C07A-8441-A16A-B01FE0402A68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -672,6 +672,7 @@
 		"establishYears": 3,
 		"manageTime": 5,
 		"isChainInstitution": "Y",
+		"legalPersonPhoneRealName": "Y",
 		"brandName": "品牌名称",
 		"annualRunningWater": 55.55,
 		"isAddressConsistent": "Y",
@@ -2205,7 +2206,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3465,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/data/jk_cwshd_test.xlsx
+++ b/data/jk_cwshd_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380804E4-C07A-8441-A16A-B01FE0402A68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF4EAE-2A36-5B46-9C76-56CE0A922750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3467,7 +3467,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>

--- a/data/jk_cwshd_test.xlsx
+++ b/data/jk_cwshd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DF4EAE-2A36-5B46-9C76-56CE0A922750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE94D4A4-7377-A04C-A8B3-A3D7A70D027E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -336,36 +336,6 @@
   </si>
   <si>
     <t>2000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"sourceCode": "jkjr",
-	"channel": "jkjr",
-	"productGroupId": "1121",
-	"productCode": "FQ_JK_CKSHD",
-	"serviceSn": "394919",
-	"requestTime": "2020-08-28 00:00:00",
-	"sourceUserId": "1923",
-	"transactionId": "3938489495991",
-	"sourceProjectId": "8399",
-	"projectId": "182939",
-	"businessType": 1,
-	"name": "张三",
-	"cardType": 0,
-	"cardNo": 372301199510103811,
-	"accountType": 0,
-	"bankId": "89",
-	"bankName": "招商银行",
-	"bankCardAccountType": 0,
-	"bankNo": "6214888888888888888",
-	"bankPhone": "18833330022",
-	"bankValidity": "13800138001",
-	"bankSafetyCode": "3848193",
-	"signNo": "",
-	"authLetterNo": "",
-	"mark": ""
-}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -725,6 +695,36 @@
 	}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"sourceCode": "jkjr",
+	"channel": "jkjr",
+	"productGroupId": "1121",
+	"productCode": "FQ_JK_CWSHD",
+	"serviceSn": "394919",
+	"requestTime": "2020-08-28 00:00:00",
+	"sourceUserId": "1923",
+	"transactionId": "3938489495991",
+	"sourceProjectId": "8399",
+	"projectId": "182939",
+	"businessType": 1,
+	"name": "张三",
+	"cardType": 0,
+	"cardNo": 372301199510103811,
+	"accountType": 0,
+	"bankId": "89",
+	"bankName": "招商银行",
+	"bankCardAccountType": 0,
+	"bankNo": "6214888888888888888",
+	"bankPhone": "18833330022",
+	"bankValidity": "13800138001",
+	"bankSafetyCode": "3848193",
+	"signNo": "",
+	"authLetterNo": "",
+	"mark": ""
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="408" customHeight="1">
@@ -2249,14 +2249,14 @@
         <v>39</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="45">
         <v>2000</v>
@@ -2318,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2979,7 +2979,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:E10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -3009,7 +3009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204" customHeight="1">
+    <row r="2" spans="1:5" ht="102">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
@@ -3097,7 +3097,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3133,10 +3133,10 @@
         <v>54</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>56</v>
@@ -3208,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E488D21-AFE7-BD44-802F-9ED2FCC7413F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3239,16 +3239,16 @@
     </row>
     <row r="2" spans="1:5" ht="187">
       <c r="A2" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>60</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>55</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="41">
         <v>2000</v>
@@ -3302,7 +3302,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
@@ -3431,7 +3431,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
@@ -3466,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3506,14 +3506,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4647,17 +4647,17 @@
     </row>
     <row r="2" spans="1:6" ht="102">
       <c r="A2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4715,7 +4715,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>

--- a/data/jk_cwshd_test.xlsx
+++ b/data/jk_cwshd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE94D4A4-7377-A04C-A8B3-A3D7A70D027E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A713315B-830E-5A4A-8CD1-31E645C6E18C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -3208,7 +3208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E488D21-AFE7-BD44-802F-9ED2FCC7413F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4673,7 +4673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/data/jk_cwshd_test.xlsx
+++ b/data/jk_cwshd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A713315B-830E-5A4A-8CD1-31E645C6E18C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21EE6BC-7E84-0441-A2C3-AA55CC64950E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -386,28 +386,6 @@
   "sourceCode" : "jkjr",
   "sourceProjectId" : "string",
   "projectId" : "string"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jkjr",
-	"sourceCode": "jkjr",
-	"sourceProjectId": "",
-	"projectId": "",
-	"sourceUserId": "",
-	"serviceSn": "",
-	"amount": 50000,
-	"currency": "CNY",
-	"accountNo": "6214888888888888888",
-	"accountType": 0,
-	"accountName": "张三",
-	"accountProp": 1,
-	"idType": 10,
-	"bankCode": "CMB",
-	"openAccountProvince": "110000",
-	"openAccountCity": "110100",
-	"openAccountBankNameSub": "招商银行上地支行"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,6 +703,28 @@
 	"mark": ""
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jkjr",
+	"sourceCode": "jkjr",
+	"sourceProjectId": "",
+	"projectId": "",
+	"sourceUserId": "",
+	"serviceSn": "",
+	"amount": 50000,
+	"currency": "CNY",
+	"accountNo": "6214888888888888888",
+	"accountType": 0,
+	"accountName": "张三",
+	"accountProp": 1,
+	"idType": 10,
+	"bankCode": "86",
+	"openAccountProvince": "110000",
+	"openAccountCity": "110100",
+	"openAccountBankNameSub": "招商银行上地支行"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2249,14 +2249,14 @@
         <v>39</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="45">
         <v>2000</v>
@@ -2276,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2318,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -3136,7 +3136,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>56</v>
@@ -3506,14 +3506,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4673,7 +4673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4715,7 +4715,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>

--- a/data/jk_cwshd_test.xlsx
+++ b/data/jk_cwshd_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21EE6BC-7E84-0441-A2C3-AA55CC64950E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF9F61-F21D-6C4B-A07E-231D978A2F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credit" sheetId="2" r:id="rId1"/>
@@ -112,16 +112,6 @@
   </si>
   <si>
     <t>/api/v1/busi/image/upload</t>
-  </si>
-  <si>
-    <t>{
-	"channel": "jkjr",
-	"sourceCode": "jkjr",
-	"imageType": 30,
-	"bizType": 2,
-	"associationId": "83193",
-	"imageUrl": "https://timgsa.baidu.com/timg?image&amp;quality=80&amp;size=b9999_10000&amp;sec=1593405568034&amp;di=2a3f8ccccf1b5ccfed254e21aa3a9b3d&amp;imgtype=0&amp;src=http%3A%2F%2Fa2.att.hudong.com%2F36%2F48%2F19300001357258133412489354717.jpg"
-}</t>
   </si>
   <si>
     <t>放款申请</t>
@@ -723,6 +713,17 @@
 	"openAccountProvince": "110000",
 	"openAccountCity": "110100",
 	"openAccountBankNameSub": "招商银行上地支行"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jkjr",
+	"sourceCode": "jkjr",
+	"imageType": 30,
+	"bizType": 2,
+	"associationId": "83193",
+	"imageUrl": "https://th.bing.com/th/id/R65398d6ad86129f9628c0ad80da4040c?rik=C3qNS9mZOQk%2b5A&amp;riu=http%3a%2f%2fwww.shijuepi.com%2fuploads%2fallimg%2f200918%2f1-20091Q10420.jpg"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2241,22 +2242,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="408" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="45">
         <v>2000</v>
@@ -2276,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2309,16 +2310,16 @@
     </row>
     <row r="2" spans="1:5" ht="340">
       <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2425,16 +2426,16 @@
     </row>
     <row r="2" spans="1:5" ht="119" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2541,16 +2542,16 @@
     </row>
     <row r="2" spans="1:5" ht="119" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2657,16 +2658,16 @@
     </row>
     <row r="2" spans="1:5" ht="153" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2775,16 +2776,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.5" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -2893,16 +2894,16 @@
     </row>
     <row r="2" spans="1:5" ht="372" customHeight="1">
       <c r="A2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="30">
         <v>2000</v>
@@ -3011,16 +3012,16 @@
     </row>
     <row r="2" spans="1:5" ht="102">
       <c r="A2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="30">
         <v>2000</v>
@@ -3110,36 +3111,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409" customHeight="1">
       <c r="A2" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3222,33 +3223,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="187">
       <c r="A2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="C2" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>60</v>
       </c>
       <c r="E2" s="41">
         <v>2000</v>
@@ -3302,22 +3303,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="31">
         <v>2000</v>
@@ -3431,22 +3432,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="31">
         <v>2000</v>
@@ -3506,14 +3507,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4647,17 +4648,17 @@
     </row>
     <row r="2" spans="1:6" ht="102">
       <c r="A2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>63</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>8</v>
@@ -4715,7 +4716,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
@@ -5023,7 +5024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
@@ -5062,8 +5065,8 @@
       <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>19</v>
+      <c r="D2" s="35" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
